--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,85 +40,85 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>destroying</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>bad</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>black</t>
+    <t>serious</t>
   </si>
   <si>
     <t>fake</t>
@@ -133,43 +133,40 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
-    <t>live</t>
+    <t>pretty</t>
   </si>
   <si>
     <t>worth</t>
@@ -178,55 +175,55 @@
     <t>wow</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>digital</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>many</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>want</t>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>documentary</t>
@@ -235,22 +232,10 @@
     <t>watching</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>…</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>’</t>
@@ -617,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,10 +674,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,13 +695,13 @@
         <v>37</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -728,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -739,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -786,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9519230769230769</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K7">
-        <v>0.7931034482758621</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K8">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9166666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,13 +995,13 @@
         <v>43</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1054,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>0.7368421052631579</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1086,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,13 +1095,13 @@
         <v>45</v>
       </c>
       <c r="K11">
-        <v>0.7222222222222222</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8333333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,13 +1145,13 @@
         <v>46</v>
       </c>
       <c r="K12">
-        <v>0.7066666666666667</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L12">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K13">
-        <v>0.6923076923076923</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7246376811594203</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>0.6333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7058823529411765</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K15">
-        <v>0.6296296296296297</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1328,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,10 +1324,10 @@
         <v>0.7</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K16">
-        <v>0.5454545454545454</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6923076923076923</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K17">
-        <v>0.4347826086956522</v>
+        <v>0.5</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.631578947368421</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K18">
-        <v>0.4166666666666667</v>
+        <v>0.4375</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.625</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K19">
-        <v>0.4166666666666667</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6170212765957447</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1554,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K20">
-        <v>0.3461538461538461</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L20">
         <v>9</v>
@@ -1578,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6153846153846154</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1610,13 +1595,13 @@
         <v>55</v>
       </c>
       <c r="K21">
-        <v>0.3389830508474576</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1628,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1636,13 +1621,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5882352941176471</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1654,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K22">
-        <v>0.3214285714285715</v>
+        <v>0.3105646630236794</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>341</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>341</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1678,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1686,13 +1671,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5714285714285714</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1704,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K23">
-        <v>0.3170731707317073</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1728,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5652173913043478</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1760,13 +1745,13 @@
         <v>58</v>
       </c>
       <c r="K24">
-        <v>0.2950819672131147</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1778,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1786,13 +1771,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1804,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K25">
-        <v>0.2914389799635702</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="L25">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1828,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>778</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1836,13 +1821,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5128205128205128</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1854,31 +1839,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K26">
-        <v>0.2641509433962264</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N26">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,13 +1871,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1904,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K27">
-        <v>0.2631578947368421</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1928,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,10 +1924,10 @@
         <v>0.5</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1954,19 +1939,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K28">
-        <v>0.2195121951219512</v>
+        <v>0.2</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1978,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1986,13 +1971,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2004,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K29">
-        <v>0.2173913043478261</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2028,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2036,13 +2021,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.217948717948718</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2054,19 +2039,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K30">
-        <v>0.2054794520547945</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2078,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2086,37 +2071,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05536332179930796</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E31">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="F31">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K31">
-        <v>0.1882352941176471</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2128,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>69</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2136,13 +2121,13 @@
         <v>66</v>
       </c>
       <c r="K32">
-        <v>0.1846153846153846</v>
+        <v>0.1079365079365079</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2154,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>53</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2162,13 +2147,13 @@
         <v>67</v>
       </c>
       <c r="K33">
-        <v>0.1830985915492958</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2180,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>58</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2188,13 +2173,13 @@
         <v>68</v>
       </c>
       <c r="K34">
-        <v>0.1791044776119403</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2206,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2214,13 +2199,13 @@
         <v>69</v>
       </c>
       <c r="K35">
-        <v>0.1730769230769231</v>
+        <v>0.0858433734939759</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2232,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2240,13 +2225,13 @@
         <v>70</v>
       </c>
       <c r="K36">
-        <v>0.131578947368421</v>
+        <v>0.07067137809187279</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2258,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>66</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2266,13 +2251,13 @@
         <v>71</v>
       </c>
       <c r="K37">
-        <v>0.1166077738515901</v>
+        <v>0.07038123167155426</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2284,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>250</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2292,25 +2277,25 @@
         <v>72</v>
       </c>
       <c r="K38">
-        <v>0.1114369501466276</v>
+        <v>0.06978085351787774</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>303</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2318,25 +2303,25 @@
         <v>73</v>
       </c>
       <c r="K39">
-        <v>0.1092592592592593</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="L39">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>481</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2344,13 +2329,13 @@
         <v>74</v>
       </c>
       <c r="K40">
-        <v>0.08766233766233766</v>
+        <v>0.04609475032010243</v>
       </c>
       <c r="L40">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M40">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2362,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>562</v>
+        <v>745</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2370,13 +2355,13 @@
         <v>75</v>
       </c>
       <c r="K41">
-        <v>0.08695652173913043</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2388,163 +2373,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K42">
-        <v>0.08283132530120482</v>
-      </c>
-      <c r="L42">
-        <v>55</v>
-      </c>
-      <c r="M42">
-        <v>55</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K43">
-        <v>0.07936507936507936</v>
-      </c>
-      <c r="L43">
-        <v>25</v>
-      </c>
-      <c r="M43">
-        <v>25</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K44">
-        <v>0.06113033448673587</v>
-      </c>
-      <c r="L44">
-        <v>106</v>
-      </c>
-      <c r="M44">
-        <v>108</v>
-      </c>
-      <c r="N44">
-        <v>0.98</v>
-      </c>
-      <c r="O44">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K45">
-        <v>0.05256410256410256</v>
-      </c>
-      <c r="L45">
-        <v>41</v>
-      </c>
-      <c r="M45">
-        <v>42</v>
-      </c>
-      <c r="N45">
-        <v>0.98</v>
-      </c>
-      <c r="O45">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46">
-        <v>0.0353356890459364</v>
-      </c>
-      <c r="L46">
-        <v>10</v>
-      </c>
-      <c r="M46">
-        <v>26</v>
-      </c>
-      <c r="N46">
-        <v>0.38</v>
-      </c>
-      <c r="O46">
-        <v>0.62</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K47">
-        <v>0.03484320557491289</v>
-      </c>
-      <c r="L47">
-        <v>10</v>
-      </c>
-      <c r="M47">
-        <v>11</v>
-      </c>
-      <c r="N47">
-        <v>0.91</v>
-      </c>
-      <c r="O47">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
